--- a/registros_de_series.xlsx
+++ b/registros_de_series.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -38,19 +38,31 @@
     <t>Fecha de Creación</t>
   </si>
   <si>
+    <t>BRENDY YOSELY ZAPATA TORRES</t>
+  </si>
+  <si>
+    <t>CRIS-TAURO</t>
+  </si>
+  <si>
+    <t>sdav</t>
+  </si>
+  <si>
+    <t>LUSTRADORA</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>EMER RODRIGO YARLEQUE ZAPATA</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
     <t>COMPAÑIA FOOD RETAIL S.A.C.</t>
   </si>
   <si>
-    <t>CRIS-TAURO</t>
-  </si>
-  <si>
-    <t>hola</t>
-  </si>
-  <si>
-    <t>LAVA BUTACAS</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
+    <t>ASPIRADORA</t>
   </si>
 </sst>
 </file>
@@ -401,10 +413,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,7 +470,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -469,19 +481,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3">
-        <v>149</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -492,19 +504,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>150</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -515,19 +527,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -538,19 +550,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>152</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -561,19 +573,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>10</v>
-      </c>
-      <c r="F7">
-        <v>153</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -584,19 +596,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -607,19 +619,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -630,19 +642,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -653,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -676,19 +688,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>158</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -699,19 +711,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -722,182 +734,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>161</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>162</v>
-      </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>163</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>164</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>165</v>
-      </c>
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>166</v>
-      </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>167</v>
-      </c>
-      <c r="G21" t="s">
         <v>11</v>
       </c>
     </row>
